--- a/Corte de Apelaciones de Arica/1-2013302#3#1-C-ingresos-2021-11.xlsx
+++ b/Corte de Apelaciones de Arica/1-2013302#3#1-C-ingresos-2021-11.xlsx
@@ -58,15 +58,15 @@
     <t>Aguas, Derechos Aprovechamiento, C. Aguas</t>
   </si>
   <si>
+    <t>Pesca Y Acuicultura, Infracciones A La Ley De</t>
+  </si>
+  <si>
+    <t>Pesos, Cobro De</t>
+  </si>
+  <si>
     <t>Precario, Inc. 2º Art. 2.195 C.c</t>
   </si>
   <si>
-    <t>Pesos, Cobro De</t>
-  </si>
-  <si>
-    <t>Pesca Y Acuicultura, Infracciones A La Ley De</t>
-  </si>
-  <si>
     <t>Prescrip.extinción De Acciones, Adquisición De Derechos Y Ot</t>
   </si>
   <si>
@@ -91,10 +91,10 @@
     <t>Arrendamiento,Desahucio Contrato Bienes Raíces Urbanos</t>
   </si>
   <si>
+    <t>Demencia C/Certificado Compin, Interdicción Por</t>
+  </si>
+  <si>
     <t>Otros Sumarios</t>
-  </si>
-  <si>
-    <t>Demencia C/Certificado Compin, Interdicción Por</t>
   </si>
   <si>
     <t>Arbitro Y Derivados, Designacion De</t>
